--- a/tests/data/merge.xlsx
+++ b/tests/data/merge.xlsx
@@ -1,17 +1,17 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28925"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="29426"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\z0047att\Documents\devel\lipimerge\tests\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{88A59A99-49E2-4C81-837F-41641EC7198E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{382B5C13-3CDE-4F65-91EF-6CEBB0E199D5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="19090" yWindow="-9580" windowWidth="38620" windowHeight="21100" activeTab="13" xr2:uid="{1E206037-B35C-453E-B276-7417E0E29B9D}"/>
-    <workbookView xWindow="57490" yWindow="-9580" windowWidth="38620" windowHeight="21100" activeTab="14" xr2:uid="{7CF90F84-00CC-48F1-A889-5C8DFFEA81CD}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13896" activeTab="13" xr2:uid="{1E206037-B35C-453E-B276-7417E0E29B9D}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13896" xr2:uid="{7CF90F84-00CC-48F1-A889-5C8DFFEA81CD}"/>
   </bookViews>
   <sheets>
     <sheet name="REDME" sheetId="23" r:id="rId1"/>
@@ -170,9 +170,6 @@
     <t>README</t>
   </si>
   <si>
-    <t>This expect consicutive test:</t>
-  </si>
-  <si>
     <t>Start with an emty sheet and merge Merge1</t>
   </si>
   <si>
@@ -263,9 +260,6 @@
     <t>M3B7</t>
   </si>
   <si>
-    <t>Then, into the result, merge Merge4</t>
-  </si>
-  <si>
     <t>Merge4-1</t>
   </si>
   <si>
@@ -336,13 +330,19 @@
   </si>
   <si>
     <t>M2bD6</t>
+  </si>
+  <si>
+    <t>This expect consecutive test:</t>
+  </si>
+  <si>
+    <t>etc.</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -352,6 +352,14 @@
     </font>
     <font>
       <sz val="8"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -377,8 +385,9 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normální" xfId="0" builtinId="0"/>
@@ -1213,7 +1222,9 @@
   <dimension ref="A1:A7"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
-    <sheetView workbookViewId="1"/>
+    <sheetView tabSelected="1" workbookViewId="1">
+      <selection activeCell="A8" sqref="A8"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
@@ -1224,27 +1235,27 @@
     </row>
     <row r="3" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
-        <v>39</v>
+        <v>93</v>
       </c>
     </row>
     <row r="4" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
     </row>
     <row r="5" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
     </row>
     <row r="6" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
     </row>
     <row r="7" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A7" t="s">
-        <v>70</v>
+      <c r="A7" s="1" t="s">
+        <v>94</v>
       </c>
     </row>
   </sheetData>
@@ -1265,27 +1276,27 @@
   <sheetData>
     <row r="2" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
     </row>
     <row r="3" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
     </row>
     <row r="4" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
     </row>
     <row r="7" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
     </row>
     <row r="8" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
     </row>
   </sheetData>
@@ -1319,10 +1330,10 @@
         <v>28</v>
       </c>
       <c r="F1" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="G1" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="H1" t="s">
         <v>1</v>
@@ -1447,138 +1458,138 @@
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
+        <v>44</v>
+      </c>
+      <c r="B11" t="s">
+        <v>48</v>
+      </c>
+      <c r="C11" t="s">
+        <v>47</v>
+      </c>
+      <c r="F11" t="s">
+        <v>46</v>
+      </c>
+      <c r="G11" t="s">
         <v>45</v>
-      </c>
-      <c r="B11" t="s">
-        <v>49</v>
-      </c>
-      <c r="C11" t="s">
-        <v>48</v>
-      </c>
-      <c r="F11" t="s">
-        <v>47</v>
-      </c>
-      <c r="G11" t="s">
-        <v>46</v>
       </c>
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
+        <v>49</v>
+      </c>
+      <c r="B12" t="s">
+        <v>53</v>
+      </c>
+      <c r="C12" t="s">
+        <v>52</v>
+      </c>
+      <c r="F12" t="s">
+        <v>51</v>
+      </c>
+      <c r="G12" t="s">
         <v>50</v>
-      </c>
-      <c r="B12" t="s">
-        <v>54</v>
-      </c>
-      <c r="C12" t="s">
-        <v>53</v>
-      </c>
-      <c r="F12" t="s">
-        <v>52</v>
-      </c>
-      <c r="G12" t="s">
-        <v>51</v>
       </c>
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
+        <v>54</v>
+      </c>
+      <c r="B13" t="s">
+        <v>58</v>
+      </c>
+      <c r="C13" t="s">
+        <v>57</v>
+      </c>
+      <c r="F13" t="s">
+        <v>56</v>
+      </c>
+      <c r="G13" t="s">
         <v>55</v>
-      </c>
-      <c r="B13" t="s">
-        <v>59</v>
-      </c>
-      <c r="C13" t="s">
-        <v>58</v>
-      </c>
-      <c r="F13" t="s">
-        <v>57</v>
-      </c>
-      <c r="G13" t="s">
-        <v>56</v>
       </c>
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
+        <v>59</v>
+      </c>
+      <c r="B14" t="s">
+        <v>63</v>
+      </c>
+      <c r="C14" t="s">
+        <v>62</v>
+      </c>
+      <c r="F14" t="s">
+        <v>61</v>
+      </c>
+      <c r="G14" t="s">
         <v>60</v>
-      </c>
-      <c r="B14" t="s">
-        <v>64</v>
-      </c>
-      <c r="C14" t="s">
-        <v>63</v>
-      </c>
-      <c r="F14" t="s">
-        <v>62</v>
-      </c>
-      <c r="G14" t="s">
-        <v>61</v>
       </c>
     </row>
     <row r="15" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
+        <v>64</v>
+      </c>
+      <c r="B15" t="s">
+        <v>68</v>
+      </c>
+      <c r="C15" t="s">
+        <v>67</v>
+      </c>
+      <c r="F15" t="s">
+        <v>66</v>
+      </c>
+      <c r="G15" t="s">
         <v>65</v>
-      </c>
-      <c r="B15" t="s">
-        <v>69</v>
-      </c>
-      <c r="C15" t="s">
-        <v>68</v>
-      </c>
-      <c r="F15" t="s">
-        <v>67</v>
-      </c>
-      <c r="G15" t="s">
-        <v>66</v>
       </c>
     </row>
     <row r="16" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
+        <v>69</v>
+      </c>
+      <c r="B16" t="s">
+        <v>75</v>
+      </c>
+      <c r="C16" t="s">
+        <v>73</v>
+      </c>
+      <c r="D16" t="s">
+        <v>72</v>
+      </c>
+      <c r="E16" t="s">
         <v>71</v>
       </c>
-      <c r="B16" t="s">
-        <v>77</v>
-      </c>
-      <c r="C16" t="s">
-        <v>75</v>
-      </c>
-      <c r="D16" t="s">
+      <c r="F16" t="s">
+        <v>70</v>
+      </c>
+      <c r="G16" t="s">
+        <v>76</v>
+      </c>
+      <c r="H16" t="s">
         <v>74</v>
-      </c>
-      <c r="E16" t="s">
-        <v>73</v>
-      </c>
-      <c r="F16" t="s">
-        <v>72</v>
-      </c>
-      <c r="G16" t="s">
-        <v>78</v>
-      </c>
-      <c r="H16" t="s">
-        <v>76</v>
       </c>
     </row>
     <row r="17" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
     </row>
     <row r="18" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
     </row>
     <row r="19" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
     </row>
     <row r="20" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
     </row>
     <row r="21" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
     </row>
   </sheetData>
@@ -1638,7 +1649,7 @@
         <v>9</v>
       </c>
       <c r="F1" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
     </row>
   </sheetData>
@@ -1671,16 +1682,16 @@
         <v>28</v>
       </c>
       <c r="F1" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="G1" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="H1" t="s">
         <v>1</v>
       </c>
       <c r="I1" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.3">
@@ -1802,138 +1813,138 @@
     </row>
     <row r="11" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
+        <v>44</v>
+      </c>
+      <c r="B11" t="s">
+        <v>48</v>
+      </c>
+      <c r="C11" t="s">
+        <v>47</v>
+      </c>
+      <c r="F11" t="s">
+        <v>46</v>
+      </c>
+      <c r="G11" t="s">
         <v>45</v>
-      </c>
-      <c r="B11" t="s">
-        <v>49</v>
-      </c>
-      <c r="C11" t="s">
-        <v>48</v>
-      </c>
-      <c r="F11" t="s">
-        <v>47</v>
-      </c>
-      <c r="G11" t="s">
-        <v>46</v>
       </c>
     </row>
     <row r="12" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
+        <v>49</v>
+      </c>
+      <c r="B12" t="s">
+        <v>53</v>
+      </c>
+      <c r="C12" t="s">
+        <v>52</v>
+      </c>
+      <c r="F12" t="s">
+        <v>51</v>
+      </c>
+      <c r="G12" t="s">
         <v>50</v>
-      </c>
-      <c r="B12" t="s">
-        <v>54</v>
-      </c>
-      <c r="C12" t="s">
-        <v>53</v>
-      </c>
-      <c r="F12" t="s">
-        <v>52</v>
-      </c>
-      <c r="G12" t="s">
-        <v>51</v>
       </c>
     </row>
     <row r="13" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
+        <v>54</v>
+      </c>
+      <c r="B13" t="s">
+        <v>58</v>
+      </c>
+      <c r="C13" t="s">
+        <v>57</v>
+      </c>
+      <c r="F13" t="s">
+        <v>56</v>
+      </c>
+      <c r="G13" t="s">
         <v>55</v>
-      </c>
-      <c r="B13" t="s">
-        <v>59</v>
-      </c>
-      <c r="C13" t="s">
-        <v>58</v>
-      </c>
-      <c r="F13" t="s">
-        <v>57</v>
-      </c>
-      <c r="G13" t="s">
-        <v>56</v>
       </c>
     </row>
     <row r="14" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
+        <v>59</v>
+      </c>
+      <c r="B14" t="s">
+        <v>63</v>
+      </c>
+      <c r="C14" t="s">
+        <v>62</v>
+      </c>
+      <c r="F14" t="s">
+        <v>61</v>
+      </c>
+      <c r="G14" t="s">
         <v>60</v>
-      </c>
-      <c r="B14" t="s">
-        <v>64</v>
-      </c>
-      <c r="C14" t="s">
-        <v>63</v>
-      </c>
-      <c r="F14" t="s">
-        <v>62</v>
-      </c>
-      <c r="G14" t="s">
-        <v>61</v>
       </c>
     </row>
     <row r="15" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
+        <v>64</v>
+      </c>
+      <c r="B15" t="s">
+        <v>68</v>
+      </c>
+      <c r="C15" t="s">
+        <v>67</v>
+      </c>
+      <c r="F15" t="s">
+        <v>66</v>
+      </c>
+      <c r="G15" t="s">
         <v>65</v>
-      </c>
-      <c r="B15" t="s">
-        <v>69</v>
-      </c>
-      <c r="C15" t="s">
-        <v>68</v>
-      </c>
-      <c r="F15" t="s">
-        <v>67</v>
-      </c>
-      <c r="G15" t="s">
-        <v>66</v>
       </c>
     </row>
     <row r="16" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
+        <v>69</v>
+      </c>
+      <c r="B16" t="s">
+        <v>75</v>
+      </c>
+      <c r="C16" t="s">
+        <v>73</v>
+      </c>
+      <c r="D16" t="s">
+        <v>72</v>
+      </c>
+      <c r="E16" t="s">
         <v>71</v>
       </c>
-      <c r="B16" t="s">
-        <v>77</v>
-      </c>
-      <c r="C16" t="s">
-        <v>75</v>
-      </c>
-      <c r="D16" t="s">
+      <c r="F16" t="s">
+        <v>70</v>
+      </c>
+      <c r="G16" t="s">
+        <v>76</v>
+      </c>
+      <c r="H16" t="s">
         <v>74</v>
-      </c>
-      <c r="E16" t="s">
-        <v>73</v>
-      </c>
-      <c r="F16" t="s">
-        <v>72</v>
-      </c>
-      <c r="G16" t="s">
-        <v>78</v>
-      </c>
-      <c r="H16" t="s">
-        <v>76</v>
       </c>
     </row>
     <row r="17" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
     </row>
     <row r="18" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
     </row>
     <row r="19" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
     </row>
     <row r="20" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
     </row>
     <row r="21" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
     </row>
   </sheetData>
@@ -1984,10 +1995,10 @@
         <v>1</v>
       </c>
       <c r="C1" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="D1" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="E1" t="s">
         <v>0</v>
@@ -2001,38 +2012,38 @@
         <v>3</v>
       </c>
       <c r="B2" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="C2" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="C3" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="D3" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="B4" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="C4" t="s">
+        <v>85</v>
+      </c>
+      <c r="D4" t="s">
+        <v>86</v>
+      </c>
+      <c r="E4" t="s">
         <v>87</v>
-      </c>
-      <c r="D4" t="s">
-        <v>88</v>
-      </c>
-      <c r="E4" t="s">
-        <v>89</v>
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.3">
@@ -2040,10 +2051,10 @@
         <v>32</v>
       </c>
       <c r="C5" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="F5" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
     </row>
   </sheetData>
@@ -2058,7 +2069,7 @@
     <sheetView workbookViewId="0">
       <selection activeCell="I2" sqref="I2"/>
     </sheetView>
-    <sheetView tabSelected="1" workbookViewId="1">
+    <sheetView workbookViewId="1">
       <selection activeCell="C9" sqref="C9"/>
     </sheetView>
   </sheetViews>
@@ -2078,16 +2089,16 @@
         <v>28</v>
       </c>
       <c r="F1" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="G1" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="H1" t="s">
         <v>1</v>
       </c>
       <c r="I1" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.3">
@@ -2104,10 +2115,10 @@
         <v>12</v>
       </c>
       <c r="H2" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="I2" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.3">
@@ -2199,13 +2210,13 @@
         <v>33</v>
       </c>
       <c r="C9" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="E9" t="s">
         <v>34</v>
       </c>
       <c r="I9" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.3">
@@ -2221,156 +2232,156 @@
     </row>
     <row r="11" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
+        <v>44</v>
+      </c>
+      <c r="B11" t="s">
+        <v>48</v>
+      </c>
+      <c r="C11" t="s">
+        <v>47</v>
+      </c>
+      <c r="F11" t="s">
+        <v>46</v>
+      </c>
+      <c r="G11" t="s">
         <v>45</v>
-      </c>
-      <c r="B11" t="s">
-        <v>49</v>
-      </c>
-      <c r="C11" t="s">
-        <v>48</v>
-      </c>
-      <c r="F11" t="s">
-        <v>47</v>
-      </c>
-      <c r="G11" t="s">
-        <v>46</v>
       </c>
     </row>
     <row r="12" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
+        <v>49</v>
+      </c>
+      <c r="B12" t="s">
+        <v>53</v>
+      </c>
+      <c r="C12" t="s">
+        <v>52</v>
+      </c>
+      <c r="F12" t="s">
+        <v>51</v>
+      </c>
+      <c r="G12" t="s">
         <v>50</v>
-      </c>
-      <c r="B12" t="s">
-        <v>54</v>
-      </c>
-      <c r="C12" t="s">
-        <v>53</v>
-      </c>
-      <c r="F12" t="s">
-        <v>52</v>
-      </c>
-      <c r="G12" t="s">
-        <v>51</v>
       </c>
     </row>
     <row r="13" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
+        <v>54</v>
+      </c>
+      <c r="B13" t="s">
+        <v>58</v>
+      </c>
+      <c r="C13" t="s">
+        <v>57</v>
+      </c>
+      <c r="F13" t="s">
+        <v>56</v>
+      </c>
+      <c r="G13" t="s">
         <v>55</v>
-      </c>
-      <c r="B13" t="s">
-        <v>59</v>
-      </c>
-      <c r="C13" t="s">
-        <v>58</v>
-      </c>
-      <c r="F13" t="s">
-        <v>57</v>
-      </c>
-      <c r="G13" t="s">
-        <v>56</v>
       </c>
     </row>
     <row r="14" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
+        <v>59</v>
+      </c>
+      <c r="B14" t="s">
+        <v>63</v>
+      </c>
+      <c r="C14" t="s">
+        <v>62</v>
+      </c>
+      <c r="F14" t="s">
+        <v>61</v>
+      </c>
+      <c r="G14" t="s">
         <v>60</v>
-      </c>
-      <c r="B14" t="s">
-        <v>64</v>
-      </c>
-      <c r="C14" t="s">
-        <v>63</v>
-      </c>
-      <c r="F14" t="s">
-        <v>62</v>
-      </c>
-      <c r="G14" t="s">
-        <v>61</v>
       </c>
     </row>
     <row r="15" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
+        <v>64</v>
+      </c>
+      <c r="B15" t="s">
+        <v>68</v>
+      </c>
+      <c r="C15" t="s">
+        <v>67</v>
+      </c>
+      <c r="F15" t="s">
+        <v>66</v>
+      </c>
+      <c r="G15" t="s">
         <v>65</v>
-      </c>
-      <c r="B15" t="s">
-        <v>69</v>
-      </c>
-      <c r="C15" t="s">
-        <v>68</v>
-      </c>
-      <c r="F15" t="s">
-        <v>67</v>
-      </c>
-      <c r="G15" t="s">
-        <v>66</v>
       </c>
     </row>
     <row r="16" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
+        <v>69</v>
+      </c>
+      <c r="B16" t="s">
+        <v>75</v>
+      </c>
+      <c r="C16" t="s">
+        <v>73</v>
+      </c>
+      <c r="D16" t="s">
+        <v>72</v>
+      </c>
+      <c r="E16" t="s">
         <v>71</v>
       </c>
-      <c r="B16" t="s">
-        <v>77</v>
-      </c>
-      <c r="C16" t="s">
-        <v>75</v>
-      </c>
-      <c r="D16" t="s">
+      <c r="F16" t="s">
+        <v>70</v>
+      </c>
+      <c r="G16" t="s">
+        <v>76</v>
+      </c>
+      <c r="H16" t="s">
         <v>74</v>
-      </c>
-      <c r="E16" t="s">
-        <v>73</v>
-      </c>
-      <c r="F16" t="s">
-        <v>72</v>
-      </c>
-      <c r="G16" t="s">
-        <v>78</v>
-      </c>
-      <c r="H16" t="s">
-        <v>76</v>
       </c>
     </row>
     <row r="17" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
     </row>
     <row r="18" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
     </row>
     <row r="19" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="B19" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="G19" t="s">
+        <v>86</v>
+      </c>
+      <c r="H19" t="s">
         <v>88</v>
       </c>
-      <c r="H19" t="s">
-        <v>90</v>
-      </c>
       <c r="I19" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
     </row>
     <row r="20" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
     </row>
     <row r="21" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="G21" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="I21" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
     </row>
   </sheetData>
@@ -2872,10 +2883,10 @@
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.3">
       <c r="D1" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="E1" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="G1" t="s">
         <v>2</v>
@@ -2886,87 +2897,87 @@
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
+        <v>44</v>
+      </c>
+      <c r="D4" t="s">
+        <v>46</v>
+      </c>
+      <c r="E4" t="s">
         <v>45</v>
       </c>
-      <c r="D4" t="s">
+      <c r="G4" t="s">
         <v>47</v>
       </c>
-      <c r="E4" t="s">
-        <v>46</v>
-      </c>
-      <c r="G4" t="s">
+      <c r="H4" t="s">
         <v>48</v>
-      </c>
-      <c r="H4" t="s">
-        <v>49</v>
       </c>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
+        <v>49</v>
+      </c>
+      <c r="D5" t="s">
+        <v>51</v>
+      </c>
+      <c r="E5" t="s">
         <v>50</v>
       </c>
-      <c r="D5" t="s">
+      <c r="G5" t="s">
         <v>52</v>
       </c>
-      <c r="E5" t="s">
-        <v>51</v>
-      </c>
-      <c r="G5" t="s">
+      <c r="H5" t="s">
         <v>53</v>
-      </c>
-      <c r="H5" t="s">
-        <v>54</v>
       </c>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
+        <v>54</v>
+      </c>
+      <c r="D6" t="s">
+        <v>56</v>
+      </c>
+      <c r="E6" t="s">
         <v>55</v>
       </c>
-      <c r="D6" t="s">
+      <c r="G6" t="s">
         <v>57</v>
       </c>
-      <c r="E6" t="s">
-        <v>56</v>
-      </c>
-      <c r="G6" t="s">
+      <c r="H6" t="s">
         <v>58</v>
-      </c>
-      <c r="H6" t="s">
-        <v>59</v>
       </c>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
+        <v>59</v>
+      </c>
+      <c r="D7" t="s">
+        <v>61</v>
+      </c>
+      <c r="E7" t="s">
         <v>60</v>
       </c>
-      <c r="D7" t="s">
+      <c r="G7" t="s">
         <v>62</v>
       </c>
-      <c r="E7" t="s">
-        <v>61</v>
-      </c>
-      <c r="G7" t="s">
+      <c r="H7" t="s">
         <v>63</v>
-      </c>
-      <c r="H7" t="s">
-        <v>64</v>
       </c>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
+        <v>64</v>
+      </c>
+      <c r="D8" t="s">
+        <v>66</v>
+      </c>
+      <c r="E8" t="s">
         <v>65</v>
       </c>
-      <c r="D8" t="s">
+      <c r="G8" t="s">
         <v>67</v>
       </c>
-      <c r="E8" t="s">
-        <v>66</v>
-      </c>
-      <c r="G8" t="s">
+      <c r="H8" t="s">
         <v>68</v>
-      </c>
-      <c r="H8" t="s">
-        <v>69</v>
       </c>
     </row>
   </sheetData>
@@ -2998,10 +3009,10 @@
         <v>28</v>
       </c>
       <c r="F1" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="G1" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.3">
@@ -3123,87 +3134,87 @@
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
+        <v>44</v>
+      </c>
+      <c r="B11" t="s">
+        <v>48</v>
+      </c>
+      <c r="C11" t="s">
+        <v>47</v>
+      </c>
+      <c r="F11" t="s">
+        <v>46</v>
+      </c>
+      <c r="G11" t="s">
         <v>45</v>
-      </c>
-      <c r="B11" t="s">
-        <v>49</v>
-      </c>
-      <c r="C11" t="s">
-        <v>48</v>
-      </c>
-      <c r="F11" t="s">
-        <v>47</v>
-      </c>
-      <c r="G11" t="s">
-        <v>46</v>
       </c>
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
+        <v>49</v>
+      </c>
+      <c r="B12" t="s">
+        <v>53</v>
+      </c>
+      <c r="C12" t="s">
+        <v>52</v>
+      </c>
+      <c r="F12" t="s">
+        <v>51</v>
+      </c>
+      <c r="G12" t="s">
         <v>50</v>
-      </c>
-      <c r="B12" t="s">
-        <v>54</v>
-      </c>
-      <c r="C12" t="s">
-        <v>53</v>
-      </c>
-      <c r="F12" t="s">
-        <v>52</v>
-      </c>
-      <c r="G12" t="s">
-        <v>51</v>
       </c>
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
+        <v>54</v>
+      </c>
+      <c r="B13" t="s">
+        <v>58</v>
+      </c>
+      <c r="C13" t="s">
+        <v>57</v>
+      </c>
+      <c r="F13" t="s">
+        <v>56</v>
+      </c>
+      <c r="G13" t="s">
         <v>55</v>
-      </c>
-      <c r="B13" t="s">
-        <v>59</v>
-      </c>
-      <c r="C13" t="s">
-        <v>58</v>
-      </c>
-      <c r="F13" t="s">
-        <v>57</v>
-      </c>
-      <c r="G13" t="s">
-        <v>56</v>
       </c>
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
+        <v>59</v>
+      </c>
+      <c r="B14" t="s">
+        <v>63</v>
+      </c>
+      <c r="C14" t="s">
+        <v>62</v>
+      </c>
+      <c r="F14" t="s">
+        <v>61</v>
+      </c>
+      <c r="G14" t="s">
         <v>60</v>
-      </c>
-      <c r="B14" t="s">
-        <v>64</v>
-      </c>
-      <c r="C14" t="s">
-        <v>63</v>
-      </c>
-      <c r="F14" t="s">
-        <v>62</v>
-      </c>
-      <c r="G14" t="s">
-        <v>61</v>
       </c>
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
+        <v>64</v>
+      </c>
+      <c r="B15" t="s">
+        <v>68</v>
+      </c>
+      <c r="C15" t="s">
+        <v>67</v>
+      </c>
+      <c r="F15" t="s">
+        <v>66</v>
+      </c>
+      <c r="G15" t="s">
         <v>65</v>
-      </c>
-      <c r="B15" t="s">
-        <v>69</v>
-      </c>
-      <c r="C15" t="s">
-        <v>68</v>
-      </c>
-      <c r="F15" t="s">
-        <v>67</v>
-      </c>
-      <c r="G15" t="s">
-        <v>66</v>
       </c>
     </row>
   </sheetData>
@@ -3249,7 +3260,7 @@
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.3">
       <c r="B1" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="C1" t="s">
         <v>28</v>
@@ -3267,33 +3278,33 @@
         <v>0</v>
       </c>
       <c r="H1" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
+        <v>69</v>
+      </c>
+      <c r="B2" t="s">
+        <v>70</v>
+      </c>
+      <c r="C2" t="s">
         <v>71</v>
       </c>
-      <c r="B2" t="s">
+      <c r="D2" t="s">
         <v>72</v>
       </c>
-      <c r="C2" t="s">
+      <c r="E2" t="s">
         <v>73</v>
       </c>
-      <c r="D2" t="s">
+      <c r="F2" t="s">
         <v>74</v>
       </c>
-      <c r="E2" t="s">
+      <c r="G2" t="s">
         <v>75</v>
       </c>
-      <c r="F2" t="s">
+      <c r="H2" t="s">
         <v>76</v>
-      </c>
-      <c r="G2" t="s">
-        <v>77</v>
-      </c>
-      <c r="H2" t="s">
-        <v>78</v>
       </c>
     </row>
   </sheetData>
@@ -3326,10 +3337,10 @@
         <v>28</v>
       </c>
       <c r="F1" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="G1" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="H1" t="s">
         <v>1</v>
@@ -3454,113 +3465,113 @@
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
+        <v>44</v>
+      </c>
+      <c r="B11" t="s">
+        <v>48</v>
+      </c>
+      <c r="C11" t="s">
+        <v>47</v>
+      </c>
+      <c r="F11" t="s">
+        <v>46</v>
+      </c>
+      <c r="G11" t="s">
         <v>45</v>
-      </c>
-      <c r="B11" t="s">
-        <v>49</v>
-      </c>
-      <c r="C11" t="s">
-        <v>48</v>
-      </c>
-      <c r="F11" t="s">
-        <v>47</v>
-      </c>
-      <c r="G11" t="s">
-        <v>46</v>
       </c>
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
+        <v>49</v>
+      </c>
+      <c r="B12" t="s">
+        <v>53</v>
+      </c>
+      <c r="C12" t="s">
+        <v>52</v>
+      </c>
+      <c r="F12" t="s">
+        <v>51</v>
+      </c>
+      <c r="G12" t="s">
         <v>50</v>
-      </c>
-      <c r="B12" t="s">
-        <v>54</v>
-      </c>
-      <c r="C12" t="s">
-        <v>53</v>
-      </c>
-      <c r="F12" t="s">
-        <v>52</v>
-      </c>
-      <c r="G12" t="s">
-        <v>51</v>
       </c>
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
+        <v>54</v>
+      </c>
+      <c r="B13" t="s">
+        <v>58</v>
+      </c>
+      <c r="C13" t="s">
+        <v>57</v>
+      </c>
+      <c r="F13" t="s">
+        <v>56</v>
+      </c>
+      <c r="G13" t="s">
         <v>55</v>
-      </c>
-      <c r="B13" t="s">
-        <v>59</v>
-      </c>
-      <c r="C13" t="s">
-        <v>58</v>
-      </c>
-      <c r="F13" t="s">
-        <v>57</v>
-      </c>
-      <c r="G13" t="s">
-        <v>56</v>
       </c>
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
+        <v>59</v>
+      </c>
+      <c r="B14" t="s">
+        <v>63</v>
+      </c>
+      <c r="C14" t="s">
+        <v>62</v>
+      </c>
+      <c r="F14" t="s">
+        <v>61</v>
+      </c>
+      <c r="G14" t="s">
         <v>60</v>
-      </c>
-      <c r="B14" t="s">
-        <v>64</v>
-      </c>
-      <c r="C14" t="s">
-        <v>63</v>
-      </c>
-      <c r="F14" t="s">
-        <v>62</v>
-      </c>
-      <c r="G14" t="s">
-        <v>61</v>
       </c>
     </row>
     <row r="15" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
+        <v>64</v>
+      </c>
+      <c r="B15" t="s">
+        <v>68</v>
+      </c>
+      <c r="C15" t="s">
+        <v>67</v>
+      </c>
+      <c r="F15" t="s">
+        <v>66</v>
+      </c>
+      <c r="G15" t="s">
         <v>65</v>
-      </c>
-      <c r="B15" t="s">
-        <v>69</v>
-      </c>
-      <c r="C15" t="s">
-        <v>68</v>
-      </c>
-      <c r="F15" t="s">
-        <v>67</v>
-      </c>
-      <c r="G15" t="s">
-        <v>66</v>
       </c>
     </row>
     <row r="16" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
+        <v>69</v>
+      </c>
+      <c r="B16" t="s">
+        <v>75</v>
+      </c>
+      <c r="C16" t="s">
+        <v>73</v>
+      </c>
+      <c r="D16" t="s">
+        <v>72</v>
+      </c>
+      <c r="E16" t="s">
         <v>71</v>
       </c>
-      <c r="B16" t="s">
-        <v>77</v>
-      </c>
-      <c r="C16" t="s">
-        <v>75</v>
-      </c>
-      <c r="D16" t="s">
+      <c r="F16" t="s">
+        <v>70</v>
+      </c>
+      <c r="G16" t="s">
+        <v>76</v>
+      </c>
+      <c r="H16" t="s">
         <v>74</v>
-      </c>
-      <c r="E16" t="s">
-        <v>73</v>
-      </c>
-      <c r="F16" t="s">
-        <v>72</v>
-      </c>
-      <c r="G16" t="s">
-        <v>78</v>
-      </c>
-      <c r="H16" t="s">
-        <v>76</v>
       </c>
     </row>
   </sheetData>
